--- a/src/main/resources/static/upload/QS.xlsx
+++ b/src/main/resources/static/upload/QS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>序号</t>
   </si>
@@ -32,16 +32,13 @@
     <t>密码</t>
   </si>
   <si>
-    <t>课程代码</t>
-  </si>
-  <si>
     <t>教学班</t>
   </si>
   <si>
-    <t>1640129313</t>
+    <t>1640129316</t>
   </si>
   <si>
-    <t>李家庆</t>
+    <t>李家庆1</t>
   </si>
   <si>
     <t>男</t>
@@ -56,16 +53,10 @@
     <t>123</t>
   </si>
   <si>
-    <t>MSD123</t>
+    <t>1640129320</t>
   </si>
   <si>
-    <t>QS</t>
-  </si>
-  <si>
-    <t>1640129314</t>
-  </si>
-  <si>
-    <t>1640129315</t>
+    <t>李家庆5</t>
   </si>
 </sst>
 </file>
@@ -110,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,11 +123,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -144,81 +132,45 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
+      <c r="H3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/main/resources/static/upload/QS.xlsx
+++ b/src/main/resources/static/upload/QS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>序号</t>
   </si>
@@ -35,28 +35,85 @@
     <t>教学班</t>
   </si>
   <si>
-    <t>1640129316</t>
+    <t>1640129326</t>
+  </si>
+  <si>
+    <t>李家庆13</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>16软工16班</t>
+  </si>
+  <si>
+    <t>13160847917</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1640129327</t>
+  </si>
+  <si>
+    <t>李家庆14</t>
+  </si>
+  <si>
+    <t>16软工17班</t>
+  </si>
+  <si>
+    <t>1640129328</t>
+  </si>
+  <si>
+    <t>李家庆15</t>
+  </si>
+  <si>
+    <t>16软工18班</t>
+  </si>
+  <si>
+    <t>1640129329</t>
+  </si>
+  <si>
+    <t>李家庆16</t>
+  </si>
+  <si>
+    <t>16软工19班</t>
+  </si>
+  <si>
+    <t>1640129330</t>
+  </si>
+  <si>
+    <t>李家庆17</t>
+  </si>
+  <si>
+    <t>16软工20班</t>
+  </si>
+  <si>
+    <t>1640129331</t>
+  </si>
+  <si>
+    <t>李家庆18</t>
+  </si>
+  <si>
+    <t>16软工21班</t>
+  </si>
+  <si>
+    <t>1640129332</t>
+  </si>
+  <si>
+    <t>李家庆19</t>
+  </si>
+  <si>
+    <t>16软工22班</t>
+  </si>
+  <si>
+    <t>1640129314</t>
   </si>
   <si>
     <t>李家庆1</t>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>软工4班</t>
-  </si>
-  <si>
-    <t>1316084791</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1640129320</t>
-  </si>
-  <si>
-    <t>李家庆5</t>
+    <t>16软工4班</t>
   </si>
 </sst>
 </file>
@@ -101,7 +158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -162,7 +219,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -171,6 +228,132 @@
         <v>12</v>
       </c>
       <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/main/resources/static/upload/QS.xlsx
+++ b/src/main/resources/static/upload/QS.xlsx
@@ -35,85 +35,85 @@
     <t>教学班</t>
   </si>
   <si>
-    <t>1640129326</t>
-  </si>
-  <si>
-    <t>李家庆13</t>
+    <t>1640129315</t>
+  </si>
+  <si>
+    <t>李家庆2</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
+    <t>16软工11班</t>
+  </si>
+  <si>
+    <t>13160847917</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1640129327</t>
+  </si>
+  <si>
+    <t>李家庆14</t>
+  </si>
+  <si>
+    <t>16软工15班</t>
+  </si>
+  <si>
+    <t>1640129328</t>
+  </si>
+  <si>
+    <t>李家庆15</t>
+  </si>
+  <si>
     <t>16软工16班</t>
   </si>
   <si>
-    <t>13160847917</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>1640129327</t>
-  </si>
-  <si>
-    <t>李家庆14</t>
+    <t>1640129329</t>
+  </si>
+  <si>
+    <t>李家庆16</t>
   </si>
   <si>
     <t>16软工17班</t>
   </si>
   <si>
-    <t>1640129328</t>
-  </si>
-  <si>
-    <t>李家庆15</t>
+    <t>1640129330</t>
+  </si>
+  <si>
+    <t>李家庆17</t>
   </si>
   <si>
     <t>16软工18班</t>
   </si>
   <si>
-    <t>1640129329</t>
-  </si>
-  <si>
-    <t>李家庆16</t>
+    <t>1640129331</t>
+  </si>
+  <si>
+    <t>李家庆18</t>
   </si>
   <si>
     <t>16软工19班</t>
   </si>
   <si>
-    <t>1640129330</t>
-  </si>
-  <si>
-    <t>李家庆17</t>
+    <t>1640129332</t>
+  </si>
+  <si>
+    <t>李家庆19</t>
   </si>
   <si>
     <t>16软工20班</t>
   </si>
   <si>
-    <t>1640129331</t>
-  </si>
-  <si>
-    <t>李家庆18</t>
+    <t>1640129333</t>
+  </si>
+  <si>
+    <t>李家庆20</t>
   </si>
   <si>
     <t>16软工21班</t>
-  </si>
-  <si>
-    <t>1640129332</t>
-  </si>
-  <si>
-    <t>李家庆19</t>
-  </si>
-  <si>
-    <t>16软工22班</t>
-  </si>
-  <si>
-    <t>1640129314</t>
-  </si>
-  <si>
-    <t>李家庆1</t>
-  </si>
-  <si>
-    <t>16软工4班</t>
   </si>
 </sst>
 </file>
@@ -206,7 +206,6 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -227,7 +226,6 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -248,7 +246,6 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -269,7 +266,6 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -290,7 +286,6 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -311,7 +306,6 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -332,7 +326,6 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -353,7 +346,6 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="H9"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
